--- a/SeleniumEasyAutomation/target/classes/TestData/InputForms.xlsx
+++ b/SeleniumEasyAutomation/target/classes/TestData/InputForms.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleFormTest" sheetId="1" r:id="rId1"/>
+    <sheet name="SelectDropDownTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>TestCase</t>
   </si>
@@ -75,6 +76,72 @@
   </si>
   <si>
     <t>Verify that the sum of "a" and "b" in 2nd Block is displayed correct when "Get Total" button is clicked</t>
+  </si>
+  <si>
+    <t>Select List Demo</t>
+  </si>
+  <si>
+    <t>Select day from the list by value</t>
+  </si>
+  <si>
+    <t>Select day from the list by visible text</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Multi Select List1</t>
+  </si>
+  <si>
+    <t>Multi Select List2</t>
+  </si>
+  <si>
+    <t>Multi Select List3</t>
+  </si>
+  <si>
+    <t>Multi Select List4</t>
+  </si>
+  <si>
+    <t>Multi Select List5</t>
+  </si>
+  <si>
+    <t>Multi Select List6</t>
+  </si>
+  <si>
+    <t>Multi Select List7</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Select all dropdown values of multi select list demo by visible text</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Multi Select List8</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
 </sst>
 </file>
@@ -419,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,4 +632,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>